--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H2">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I2">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J2">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.47780866666666</v>
+        <v>22.720324</v>
       </c>
       <c r="N2">
-        <v>91.433426</v>
+        <v>68.160972</v>
       </c>
       <c r="O2">
-        <v>0.9838017987059956</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P2">
-        <v>0.9848051540204799</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q2">
-        <v>65.72414479951134</v>
+        <v>41.92585174440667</v>
       </c>
       <c r="R2">
-        <v>591.517303195602</v>
+        <v>377.33266569966</v>
       </c>
       <c r="S2">
-        <v>0.01366906946452854</v>
+        <v>0.008255538167577301</v>
       </c>
       <c r="T2">
-        <v>0.01371821292897815</v>
+        <v>0.008322351450164755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H3">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I3">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J3">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.001433598258192696</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P3">
-        <v>0.001435060349879339</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q3">
-        <v>0.09577337592766667</v>
+        <v>0.08195415272055555</v>
       </c>
       <c r="R3">
-        <v>0.861960383349</v>
+        <v>0.7375873744849999</v>
       </c>
       <c r="S3">
-        <v>1.99185996622875E-05</v>
+        <v>1.613743329296267E-05</v>
       </c>
       <c r="T3">
-        <v>1.999021163243146E-05</v>
+        <v>1.626803591013346E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H4">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I4">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J4">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.00569</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N4">
-        <v>0.01707</v>
+        <v>0.019604</v>
       </c>
       <c r="O4">
-        <v>0.0001836691179428336</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P4">
-        <v>0.0001838564375694463</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q4">
-        <v>0.01227025171</v>
+        <v>0.01205843129111111</v>
       </c>
       <c r="R4">
-        <v>0.11043226539</v>
+        <v>0.10852588162</v>
       </c>
       <c r="S4">
-        <v>2.551922485760319E-06</v>
+        <v>2.374402322742483E-06</v>
       </c>
       <c r="T4">
-        <v>2.561097236995767E-06</v>
+        <v>2.393618709384453E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.156459</v>
+        <v>1.845301666666667</v>
       </c>
       <c r="H5">
-        <v>6.469377000000001</v>
+        <v>5.535905</v>
       </c>
       <c r="I5">
-        <v>0.01389412936885012</v>
+        <v>0.008328310316464575</v>
       </c>
       <c r="J5">
-        <v>0.01392987523772938</v>
+        <v>0.008377479404753712</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,43 +744,43 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0946895</v>
+        <v>0.1493315</v>
       </c>
       <c r="N5">
-        <v>0.189379</v>
+        <v>0.298663</v>
       </c>
       <c r="O5">
-        <v>0.003056509128901219</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P5">
-        <v>0.002039750925041838</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q5">
-        <v>0.2041940244805</v>
+        <v>0.2755616658358334</v>
       </c>
       <c r="R5">
-        <v>1.225164146883</v>
+        <v>1.653369995015</v>
       </c>
       <c r="S5">
-        <v>4.246753325402491E-05</v>
+        <v>5.426031327156997E-05</v>
       </c>
       <c r="T5">
-        <v>2.841347590187589E-05</v>
+        <v>3.646629996943934E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.156459</v>
+        <v>3.009804666666666</v>
       </c>
       <c r="H6">
-        <v>6.469377000000001</v>
+        <v>9.029413999999999</v>
       </c>
       <c r="I6">
-        <v>0.01389412936885012</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J6">
-        <v>0.01392987523772938</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3570223333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N6">
-        <v>1.071067</v>
+        <v>68.160972</v>
       </c>
       <c r="O6">
-        <v>0.0115244247889676</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P6">
-        <v>0.01153617826702954</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q6">
-        <v>0.7699040239176668</v>
+        <v>68.38373720337866</v>
       </c>
       <c r="R6">
-        <v>6.929136215259001</v>
+        <v>615.453634830408</v>
       </c>
       <c r="S6">
-        <v>0.000160121848919499</v>
+        <v>0.01346530908819006</v>
       </c>
       <c r="T6">
-        <v>0.0001606975239799265</v>
+        <v>0.01357428581181179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>9.029413999999999</v>
       </c>
       <c r="I7">
-        <v>0.01939226083762105</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J7">
-        <v>0.01944215192433629</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>30.47780866666666</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N7">
-        <v>91.433426</v>
+        <v>0.133237</v>
       </c>
       <c r="O7">
-        <v>0.9838017987059956</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P7">
-        <v>0.9848051540204799</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q7">
-        <v>91.7322507547071</v>
+        <v>0.1336724481242222</v>
       </c>
       <c r="R7">
-        <v>825.5902567923639</v>
+        <v>1.203052033118</v>
       </c>
       <c r="S7">
-        <v>0.01907814109302743</v>
+        <v>2.632118255272503E-05</v>
       </c>
       <c r="T7">
-        <v>0.01914673142033557</v>
+        <v>2.653420374798011E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>9.029413999999999</v>
       </c>
       <c r="I8">
-        <v>0.01939226083762105</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J8">
-        <v>0.01944215192433629</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04441233333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N8">
-        <v>0.133237</v>
+        <v>0.019604</v>
       </c>
       <c r="O8">
-        <v>0.001433598258192696</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P8">
-        <v>0.001435060349879339</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q8">
-        <v>0.1336724481242222</v>
+        <v>0.01966807022844444</v>
       </c>
       <c r="R8">
-        <v>1.203052033118</v>
+        <v>0.177012632056</v>
       </c>
       <c r="S8">
-        <v>2.780071135923196E-05</v>
+        <v>3.872801569861386E-06</v>
       </c>
       <c r="T8">
-        <v>2.790066134294531E-05</v>
+        <v>3.90414472162689E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>9.029413999999999</v>
       </c>
       <c r="I9">
-        <v>0.01939226083762105</v>
+        <v>0.01358400510265795</v>
       </c>
       <c r="J9">
-        <v>0.01944215192433629</v>
+        <v>0.01366420302046275</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.00569</v>
+        <v>0.1493315</v>
       </c>
       <c r="N9">
-        <v>0.01707</v>
+        <v>0.298663</v>
       </c>
       <c r="O9">
-        <v>0.0001836691179428336</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P9">
-        <v>0.0001838564375694463</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q9">
-        <v>0.01712578855333333</v>
+        <v>0.4494586455803333</v>
       </c>
       <c r="R9">
-        <v>0.15413209698</v>
+        <v>2.696751873482</v>
       </c>
       <c r="S9">
-        <v>3.561759442963213E-06</v>
+        <v>8.85020303453003E-05</v>
       </c>
       <c r="T9">
-        <v>3.574564791492426E-06</v>
+        <v>5.947886018135339E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.009804666666666</v>
+        <v>119.514145</v>
       </c>
       <c r="H10">
-        <v>9.029413999999999</v>
+        <v>358.542435</v>
       </c>
       <c r="I10">
-        <v>0.01939226083762105</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J10">
-        <v>0.01944215192433629</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0946895</v>
+        <v>22.720324</v>
       </c>
       <c r="N10">
-        <v>0.189379</v>
+        <v>68.160972</v>
       </c>
       <c r="O10">
-        <v>0.003056509128901219</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P10">
-        <v>0.002039750925041838</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q10">
-        <v>0.2849968989843333</v>
+        <v>2715.40009698298</v>
       </c>
       <c r="R10">
-        <v>1.709981393906</v>
+        <v>24438.60087284682</v>
       </c>
       <c r="S10">
-        <v>5.927262228022234E-05</v>
+        <v>0.5346841676001671</v>
       </c>
       <c r="T10">
-        <v>3.965714737246891E-05</v>
+        <v>0.5390114450786009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.009804666666666</v>
+        <v>119.514145</v>
       </c>
       <c r="H11">
-        <v>9.029413999999999</v>
+        <v>358.542435</v>
       </c>
       <c r="I11">
-        <v>0.01939226083762105</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J11">
-        <v>0.01944215192433629</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3570223333333333</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N11">
-        <v>1.071067</v>
+        <v>0.133237</v>
       </c>
       <c r="O11">
-        <v>0.0115244247889676</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P11">
-        <v>0.01153617826702954</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q11">
-        <v>1.074567484970889</v>
+        <v>5.307902045788333</v>
       </c>
       <c r="R11">
-        <v>9.671107364737999</v>
+        <v>47.771118412095</v>
       </c>
       <c r="S11">
-        <v>0.0002234846515112056</v>
+        <v>0.001045168699157393</v>
       </c>
       <c r="T11">
-        <v>0.0002242881304938148</v>
+        <v>0.001053627402906425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.649016</v>
+        <v>119.514145</v>
       </c>
       <c r="H12">
-        <v>241.947048</v>
+        <v>358.542435</v>
       </c>
       <c r="I12">
-        <v>0.5196240048034592</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J12">
-        <v>0.5209608580203196</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>30.47780866666666</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N12">
-        <v>91.433426</v>
+        <v>0.019604</v>
       </c>
       <c r="O12">
-        <v>0.9838017987059956</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P12">
-        <v>0.9848051540204799</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q12">
-        <v>2458.005278802938</v>
+        <v>0.7809850995266667</v>
       </c>
       <c r="R12">
-        <v>22122.04750922645</v>
+        <v>7.02886589574</v>
       </c>
       <c r="S12">
-        <v>0.511207030576456</v>
+        <v>0.0001537822615210604</v>
       </c>
       <c r="T12">
-        <v>0.5130449380213421</v>
+        <v>0.0001550268439440813</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.649016</v>
+        <v>119.514145</v>
       </c>
       <c r="H13">
-        <v>241.947048</v>
+        <v>358.542435</v>
       </c>
       <c r="I13">
-        <v>0.5196240048034592</v>
+        <v>0.5393973813316575</v>
       </c>
       <c r="J13">
-        <v>0.5209608580203196</v>
+        <v>0.5425819021357386</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.04441233333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N13">
-        <v>0.133237</v>
+        <v>0.298663</v>
       </c>
       <c r="O13">
-        <v>0.001433598258192696</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P13">
-        <v>0.001435060349879339</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q13">
-        <v>3.581810981597333</v>
+        <v>17.8472265440675</v>
       </c>
       <c r="R13">
-        <v>32.236298834376</v>
+        <v>107.083359264405</v>
       </c>
       <c r="S13">
-        <v>0.0007449320682013519</v>
+        <v>0.003514262770811911</v>
       </c>
       <c r="T13">
-        <v>0.0007476102711840805</v>
+        <v>0.002361802810287245</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>80.649016</v>
+        <v>3.9013105</v>
       </c>
       <c r="H14">
-        <v>241.947048</v>
+        <v>7.802621</v>
       </c>
       <c r="I14">
-        <v>0.5196240048034592</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J14">
-        <v>0.5209608580203196</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00569</v>
+        <v>22.720324</v>
       </c>
       <c r="N14">
-        <v>0.01707</v>
+        <v>68.160972</v>
       </c>
       <c r="O14">
-        <v>0.0001836691179428336</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P14">
-        <v>0.0001838564375694463</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q14">
-        <v>0.45889290104</v>
+        <v>88.63903858460201</v>
       </c>
       <c r="R14">
-        <v>4.13003610936</v>
+        <v>531.834231507612</v>
       </c>
       <c r="S14">
-        <v>9.543888262417406E-05</v>
+        <v>0.01745374120563128</v>
       </c>
       <c r="T14">
-        <v>9.578200746873807E-05</v>
+        <v>0.01172999793067908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>80.649016</v>
+        <v>3.9013105</v>
       </c>
       <c r="H15">
-        <v>241.947048</v>
+        <v>7.802621</v>
       </c>
       <c r="I15">
-        <v>0.5196240048034592</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J15">
-        <v>0.5209608580203196</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.0946895</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N15">
-        <v>0.189379</v>
+        <v>0.133237</v>
       </c>
       <c r="O15">
-        <v>0.003056509128901219</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P15">
-        <v>0.002039750925041838</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q15">
-        <v>7.636615000532</v>
+        <v>0.1732663023628333</v>
       </c>
       <c r="R15">
-        <v>45.81969000319199</v>
+        <v>1.039597814177</v>
       </c>
       <c r="S15">
-        <v>0.001588235514277984</v>
+        <v>3.411753161346782E-05</v>
       </c>
       <c r="T15">
-        <v>0.001062630392057537</v>
+        <v>2.292909987096265E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>80.649016</v>
+        <v>3.9013105</v>
       </c>
       <c r="H16">
-        <v>241.947048</v>
+        <v>7.802621</v>
       </c>
       <c r="I16">
-        <v>0.5196240048034592</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J16">
-        <v>0.5209608580203196</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3570223333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N16">
-        <v>1.071067</v>
+        <v>0.019604</v>
       </c>
       <c r="O16">
-        <v>0.0115244247889676</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P16">
-        <v>0.01153617826702954</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q16">
-        <v>28.79349987335733</v>
+        <v>0.02549376368066667</v>
       </c>
       <c r="R16">
-        <v>259.141498860216</v>
+        <v>0.152962582084</v>
       </c>
       <c r="S16">
-        <v>0.005988367761899604</v>
+        <v>5.019927570798076E-06</v>
       </c>
       <c r="T16">
-        <v>0.006009897328267071</v>
+        <v>3.373703054484503E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.19484</v>
+        <v>3.9013105</v>
       </c>
       <c r="H17">
-        <v>2.38968</v>
+        <v>7.802621</v>
       </c>
       <c r="I17">
-        <v>0.007698389598446743</v>
+        <v>0.01760759504627423</v>
       </c>
       <c r="J17">
-        <v>0.005145463660271635</v>
+        <v>0.01180769842159481</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>30.47780866666666</v>
+        <v>0.1493315</v>
       </c>
       <c r="N17">
-        <v>91.433426</v>
+        <v>0.298663</v>
       </c>
       <c r="O17">
-        <v>0.9838017987059956</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P17">
-        <v>0.9848051540204799</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q17">
-        <v>36.41610490727999</v>
+        <v>0.5825885489307501</v>
       </c>
       <c r="R17">
-        <v>218.49662944368</v>
+        <v>2.330354195723</v>
       </c>
       <c r="S17">
-        <v>0.007573689534091433</v>
+        <v>0.0001147163814586767</v>
       </c>
       <c r="T17">
-        <v>0.00506727913246059</v>
+        <v>5.139768799028286E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.19484</v>
+        <v>93.29919200000001</v>
       </c>
       <c r="H18">
-        <v>2.38968</v>
+        <v>279.897576</v>
       </c>
       <c r="I18">
-        <v>0.007698389598446743</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="J18">
-        <v>0.005145463660271635</v>
+        <v>0.4235687170174501</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04441233333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N18">
-        <v>0.133237</v>
+        <v>68.160972</v>
       </c>
       <c r="O18">
-        <v>0.001433598258192696</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P18">
-        <v>0.001435060349879339</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q18">
-        <v>0.05306563236</v>
+        <v>2119.787871178208</v>
       </c>
       <c r="R18">
-        <v>0.31839379416</v>
+        <v>19078.09084060387</v>
       </c>
       <c r="S18">
-        <v>1.103639791922202E-05</v>
+        <v>0.4174033191827476</v>
       </c>
       <c r="T18">
-        <v>7.384050880600838E-06</v>
+        <v>0.4207814255340725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.19484</v>
+        <v>93.29919200000001</v>
       </c>
       <c r="H19">
-        <v>2.38968</v>
+        <v>279.897576</v>
       </c>
       <c r="I19">
-        <v>0.007698389598446743</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="J19">
-        <v>0.005145463660271635</v>
+        <v>0.4235687170174501</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.00569</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N19">
-        <v>0.01707</v>
+        <v>0.133237</v>
       </c>
       <c r="O19">
-        <v>0.0001836691179428336</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P19">
-        <v>0.0001838564375694463</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q19">
-        <v>0.006798639599999999</v>
+        <v>4.143634814834667</v>
       </c>
       <c r="R19">
-        <v>0.04079183759999999</v>
+        <v>37.292713333512</v>
       </c>
       <c r="S19">
-        <v>1.413956427126998E-06</v>
+        <v>0.0008159150963685162</v>
       </c>
       <c r="T19">
-        <v>9.460266182205867E-07</v>
+        <v>0.0008225184170478558</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.19484</v>
+        <v>93.29919200000001</v>
       </c>
       <c r="H20">
-        <v>2.38968</v>
+        <v>279.897576</v>
       </c>
       <c r="I20">
-        <v>0.007698389598446743</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="J20">
-        <v>0.005145463660271635</v>
+        <v>0.4235687170174501</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.0946895</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N20">
-        <v>0.189379</v>
+        <v>0.019604</v>
       </c>
       <c r="O20">
-        <v>0.003056509128901219</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P20">
-        <v>0.002039750925041838</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q20">
-        <v>0.11313880218</v>
+        <v>0.6096791199893334</v>
       </c>
       <c r="R20">
-        <v>0.4525552087199999</v>
+        <v>5.487112079904001</v>
       </c>
       <c r="S20">
-        <v>2.353019808549066E-05</v>
+        <v>0.0001200507332738533</v>
       </c>
       <c r="T20">
-        <v>1.049546426080823E-05</v>
+        <v>0.0001210223214858197</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.19484</v>
+        <v>93.29919200000001</v>
       </c>
       <c r="H21">
-        <v>2.38968</v>
+        <v>279.897576</v>
       </c>
       <c r="I21">
-        <v>0.007698389598446743</v>
+        <v>0.4210827082029456</v>
       </c>
       <c r="J21">
-        <v>0.005145463660271635</v>
+        <v>0.4235687170174501</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21">
-        <v>0.3570223333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N21">
-        <v>1.071067</v>
+        <v>0.298663</v>
       </c>
       <c r="O21">
-        <v>0.0115244247889676</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P21">
-        <v>0.01153617826702954</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q21">
-        <v>0.42658456476</v>
+        <v>13.932508290148</v>
       </c>
       <c r="R21">
-        <v>2.55950738856</v>
+        <v>83.595049740888</v>
       </c>
       <c r="S21">
-        <v>8.871951192346998E-05</v>
+        <v>0.002743423190555666</v>
       </c>
       <c r="T21">
-        <v>5.935898605141589E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H22">
-        <v>204.5891</v>
-      </c>
-      <c r="I22">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J22">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>30.47780866666666</v>
-      </c>
-      <c r="N22">
-        <v>91.433426</v>
-      </c>
-      <c r="O22">
-        <v>0.9838017987059956</v>
-      </c>
-      <c r="P22">
-        <v>0.9848051540204799</v>
-      </c>
-      <c r="Q22">
-        <v>2078.475815028511</v>
-      </c>
-      <c r="R22">
-        <v>18706.2823352566</v>
-      </c>
-      <c r="S22">
-        <v>0.4322738680378923</v>
-      </c>
-      <c r="T22">
-        <v>0.4338279925173634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H23">
-        <v>204.5891</v>
-      </c>
-      <c r="I23">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J23">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.04441233333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.133237</v>
-      </c>
-      <c r="O23">
-        <v>0.001433598258192696</v>
-      </c>
-      <c r="P23">
-        <v>0.001435060349879339</v>
-      </c>
-      <c r="Q23">
-        <v>3.028759768522222</v>
-      </c>
-      <c r="R23">
-        <v>27.2588379167</v>
-      </c>
-      <c r="S23">
-        <v>0.0006299104810506024</v>
-      </c>
-      <c r="T23">
-        <v>0.0006321751548392811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H24">
-        <v>204.5891</v>
-      </c>
-      <c r="I24">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J24">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.00569</v>
-      </c>
-      <c r="N24">
-        <v>0.01707</v>
-      </c>
-      <c r="O24">
-        <v>0.0001836691179428336</v>
-      </c>
-      <c r="P24">
-        <v>0.0001838564375694463</v>
-      </c>
-      <c r="Q24">
-        <v>0.3880373263333333</v>
-      </c>
-      <c r="R24">
-        <v>3.492335937</v>
-      </c>
-      <c r="S24">
-        <v>8.070259696280899E-05</v>
-      </c>
-      <c r="T24">
-        <v>8.099274145399948E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H25">
-        <v>204.5891</v>
-      </c>
-      <c r="I25">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J25">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.0946895</v>
-      </c>
-      <c r="N25">
-        <v>0.189379</v>
-      </c>
-      <c r="O25">
-        <v>0.003056509128901219</v>
-      </c>
-      <c r="P25">
-        <v>0.002039750925041838</v>
-      </c>
-      <c r="Q25">
-        <v>6.457479861483333</v>
-      </c>
-      <c r="R25">
-        <v>38.7448791689</v>
-      </c>
-      <c r="S25">
-        <v>0.001343003261003498</v>
-      </c>
-      <c r="T25">
-        <v>0.0008985544454491487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>68.19636666666666</v>
-      </c>
-      <c r="H26">
-        <v>204.5891</v>
-      </c>
-      <c r="I26">
-        <v>0.4393912153916231</v>
-      </c>
-      <c r="J26">
-        <v>0.4405216511573432</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3570223333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.071067</v>
-      </c>
-      <c r="O26">
-        <v>0.0115244247889676</v>
-      </c>
-      <c r="P26">
-        <v>0.01153617826702954</v>
-      </c>
-      <c r="Q26">
-        <v>24.34762595218889</v>
-      </c>
-      <c r="R26">
-        <v>219.1286335697</v>
-      </c>
-      <c r="S26">
-        <v>0.005063731014713823</v>
-      </c>
-      <c r="T26">
-        <v>0.005081936298237309</v>
+        <v>0.001843750744843878</v>
       </c>
     </row>
   </sheetData>
